--- a/idis/expdata/10041.xlsx
+++ b/idis/expdata/10041.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E237994E-C2E6-4A43-8C20-7C0EDCBE610D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B6882E-DA97-E845-A49F-25137D42C61B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35840" yWindow="2100" windowWidth="28800" windowHeight="15960" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,9 +69,6 @@
     <t>sigh/sigd</t>
   </si>
   <si>
-    <t>tar</t>
-  </si>
-  <si>
     <t>h/d</t>
   </si>
   <si>
@@ -88,6 +85,9 @@
   </si>
   <si>
     <t>*norm_c</t>
+  </si>
+  <si>
+    <t>target</t>
   </si>
 </sst>
 </file>
@@ -435,7 +435,7 @@
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -468,10 +468,10 @@
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>8</v>
@@ -483,19 +483,19 @@
         <v>4</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="N1" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -515,7 +515,7 @@
         <v>5.766</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>9</v>
@@ -561,7 +561,7 @@
         <v>5.766</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>9</v>
@@ -607,7 +607,7 @@
         <v>5.766</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>9</v>
@@ -653,7 +653,7 @@
         <v>5.766</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>9</v>
@@ -699,7 +699,7 @@
         <v>5.766</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>9</v>
@@ -745,7 +745,7 @@
         <v>5.766</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>9</v>
@@ -791,7 +791,7 @@
         <v>5.766</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>9</v>
@@ -837,7 +837,7 @@
         <v>5.766</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>9</v>
@@ -883,7 +883,7 @@
         <v>5.766</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>9</v>
@@ -929,7 +929,7 @@
         <v>5.766</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>9</v>
@@ -975,7 +975,7 @@
         <v>5.766</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>9</v>
@@ -1021,7 +1021,7 @@
         <v>5.766</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>9</v>
@@ -1067,7 +1067,7 @@
         <v>5.766</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>9</v>
@@ -1113,7 +1113,7 @@
         <v>5.766</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>9</v>
@@ -1159,7 +1159,7 @@
         <v>5.766</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>9</v>
@@ -1205,7 +1205,7 @@
         <v>5.766</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>9</v>
@@ -1251,7 +1251,7 @@
         <v>5.766</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>9</v>
@@ -1297,7 +1297,7 @@
         <v>5.766</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>9</v>
@@ -1343,7 +1343,7 @@
         <v>5.766</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>9</v>
@@ -1389,7 +1389,7 @@
         <v>5.766</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>9</v>
@@ -1435,7 +1435,7 @@
         <v>5.766</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>9</v>
@@ -1481,7 +1481,7 @@
         <v>5.766</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>9</v>
@@ -1527,7 +1527,7 @@
         <v>5.766</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>9</v>
@@ -1573,7 +1573,7 @@
         <v>5.766</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>9</v>
@@ -1619,7 +1619,7 @@
         <v>5.766</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>9</v>
@@ -1665,7 +1665,7 @@
         <v>5.766</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>9</v>

--- a/idis/expdata/10041.xlsx
+++ b/idis/expdata/10041.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B6882E-DA97-E845-A49F-25137D42C61B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175CDE69-4E4C-2043-98D3-A032149F486A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35840" yWindow="2100" windowWidth="28800" windowHeight="15960" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="21">
   <si>
     <t>Q2</t>
   </si>
@@ -88,6 +88,18 @@
   </si>
   <si>
     <t>target</t>
+  </si>
+  <si>
+    <t>lepton beam</t>
+  </si>
+  <si>
+    <t>e_minus</t>
+  </si>
+  <si>
+    <t>current</t>
+  </si>
+  <si>
+    <t>NC</t>
   </si>
 </sst>
 </file>
@@ -432,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -443,18 +455,18 @@
     <col min="1" max="1" width="20.1640625" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="5" width="13.83203125" customWidth="1"/>
-    <col min="6" max="6" width="11.1640625" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" customWidth="1"/>
-    <col min="10" max="10" width="14.83203125" customWidth="1"/>
-    <col min="11" max="11" width="14.1640625" customWidth="1"/>
-    <col min="12" max="12" width="16" customWidth="1"/>
-    <col min="13" max="13" width="16.33203125" customWidth="1"/>
+    <col min="4" max="7" width="13.83203125" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="15.1640625" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" customWidth="1"/>
+    <col min="12" max="12" width="14.83203125" customWidth="1"/>
+    <col min="13" max="13" width="14.1640625" customWidth="1"/>
+    <col min="14" max="14" width="16" customWidth="1"/>
+    <col min="15" max="15" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -471,34 +483,40 @@
         <v>14</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -515,36 +533,42 @@
         <v>5.766</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="2">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="2">
         <v>0.97740000000000005</v>
       </c>
-      <c r="I2" s="2">
+      <c r="K2" s="2">
         <v>0.94</v>
       </c>
-      <c r="J2" s="2">
-        <f>H2/I2</f>
+      <c r="L2" s="2">
+        <f>J2/K2</f>
         <v>1.0397872340425534</v>
       </c>
-      <c r="K2" s="2">
+      <c r="M2" s="2">
         <v>1.0009999999999999</v>
       </c>
-      <c r="L2" s="2">
+      <c r="N2" s="2">
         <v>6.1980000000000004E-3</v>
       </c>
-      <c r="M2" s="2">
+      <c r="O2" s="2">
         <v>9.6310000000000007E-3</v>
       </c>
-      <c r="N2" s="1">
-        <f>J2*0.0184</f>
+      <c r="P2" s="1">
+        <f>L2*0.0184</f>
         <v>1.9132085106382982E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -561,36 +585,42 @@
         <v>5.766</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="2">
+        <v>20</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="2">
         <v>0.97629999999999995</v>
       </c>
-      <c r="I3" s="2">
+      <c r="K3" s="2">
         <v>0.93669999999999998</v>
       </c>
-      <c r="J3" s="2">
-        <f t="shared" ref="J3:J27" si="0">H3/I3</f>
+      <c r="L3" s="2">
+        <f t="shared" ref="L3:L27" si="0">J3/K3</f>
         <v>1.0422760755844986</v>
       </c>
-      <c r="K3" s="2">
+      <c r="M3" s="2">
         <v>1.0009999999999999</v>
       </c>
-      <c r="L3" s="2">
+      <c r="N3" s="2">
         <v>5.8719999999999996E-3</v>
       </c>
-      <c r="M3" s="2">
+      <c r="O3" s="2">
         <v>9.6729999999999993E-3</v>
       </c>
-      <c r="N3" s="1">
-        <f t="shared" ref="N3:N27" si="1">J3*0.0184</f>
+      <c r="P3" s="1">
+        <f t="shared" ref="P3:P27" si="1">L3*0.0184</f>
         <v>1.9177879790754776E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -607,36 +637,42 @@
         <v>5.766</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="2">
+        <v>20</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="2">
         <v>0.97960000000000003</v>
       </c>
-      <c r="I4" s="2">
+      <c r="K4" s="2">
         <v>0.93340000000000001</v>
       </c>
-      <c r="J4" s="2">
+      <c r="L4" s="2">
         <f t="shared" si="0"/>
         <v>1.0494964645382472</v>
       </c>
-      <c r="K4" s="2">
+      <c r="M4" s="2">
         <v>1.0009999999999999</v>
       </c>
-      <c r="L4" s="2">
+      <c r="N4" s="2">
         <v>5.7400000000000003E-3</v>
       </c>
-      <c r="M4" s="2">
+      <c r="O4" s="2">
         <v>9.7590000000000003E-3</v>
       </c>
-      <c r="N4" s="1">
+      <c r="P4" s="1">
         <f t="shared" si="1"/>
         <v>1.9310734947503749E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -653,36 +689,42 @@
         <v>5.766</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="2">
+        <v>20</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="2">
         <v>0.96840000000000004</v>
       </c>
-      <c r="I5" s="2">
+      <c r="K5" s="2">
         <v>0.93010000000000004</v>
       </c>
-      <c r="J5" s="2">
+      <c r="L5" s="2">
         <f t="shared" si="0"/>
         <v>1.0411783679174282</v>
       </c>
-      <c r="K5" s="2">
+      <c r="M5" s="2">
         <v>1.0009999999999999</v>
       </c>
-      <c r="L5" s="2">
+      <c r="N5" s="2">
         <v>4.5729999999999998E-3</v>
       </c>
-      <c r="M5" s="2">
+      <c r="O5" s="2">
         <v>9.7000000000000003E-3</v>
       </c>
-      <c r="N5" s="1">
+      <c r="P5" s="1">
         <f t="shared" si="1"/>
         <v>1.9157681969680679E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -699,36 +741,42 @@
         <v>5.766</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="2">
+        <v>20</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="2">
         <v>0.97250000000000003</v>
       </c>
-      <c r="I6" s="2">
+      <c r="K6" s="2">
         <v>0.92669999999999997</v>
       </c>
-      <c r="J6" s="2">
+      <c r="L6" s="2">
         <f t="shared" si="0"/>
         <v>1.0494226826373152</v>
       </c>
-      <c r="K6" s="2">
+      <c r="M6" s="2">
         <v>1.002</v>
       </c>
-      <c r="L6" s="2">
+      <c r="N6" s="2">
         <v>5.8640000000000003E-3</v>
       </c>
-      <c r="M6" s="2">
+      <c r="O6" s="2">
         <v>9.7929999999999996E-3</v>
       </c>
-      <c r="N6" s="1">
+      <c r="P6" s="1">
         <f t="shared" si="1"/>
         <v>1.9309377360526601E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -745,36 +793,42 @@
         <v>5.766</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="2">
+        <v>20</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="2">
         <v>0.97130000000000005</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>0.92330000000000001</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <f t="shared" si="0"/>
         <v>1.0519874363695441</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>1.002</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>5.4669999999999996E-3</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>9.835E-3</v>
       </c>
-      <c r="N7" s="1">
+      <c r="P7" s="1">
         <f t="shared" si="1"/>
         <v>1.9356568829199609E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -791,36 +845,42 @@
         <v>5.766</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="2">
+        <v>20</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="2">
         <v>0.96960000000000002</v>
       </c>
-      <c r="I8" s="2">
+      <c r="K8" s="2">
         <v>0.91979999999999995</v>
       </c>
-      <c r="J8" s="2">
+      <c r="L8" s="2">
         <f t="shared" si="0"/>
         <v>1.0541422048271365</v>
       </c>
-      <c r="K8" s="2">
+      <c r="M8" s="2">
         <v>1.002</v>
       </c>
-      <c r="L8" s="2">
+      <c r="N8" s="2">
         <v>4.5139999999999998E-3</v>
       </c>
-      <c r="M8" s="2">
+      <c r="O8" s="2">
         <v>9.8700000000000003E-3</v>
       </c>
-      <c r="N8" s="1">
+      <c r="P8" s="1">
         <f t="shared" si="1"/>
         <v>1.9396216568819312E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -837,36 +897,42 @@
         <v>5.766</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="2">
+        <v>20</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="2">
         <v>0.96289999999999998</v>
       </c>
-      <c r="I9" s="2">
+      <c r="K9" s="2">
         <v>0.9163</v>
       </c>
-      <c r="J9" s="2">
+      <c r="L9" s="2">
         <f t="shared" si="0"/>
         <v>1.0508567063188912</v>
       </c>
-      <c r="K9" s="2">
+      <c r="M9" s="2">
         <v>1.002</v>
       </c>
-      <c r="L9" s="2">
+      <c r="N9" s="2">
         <v>5.9160000000000003E-3</v>
       </c>
-      <c r="M9" s="2">
+      <c r="O9" s="2">
         <v>9.8539999999999999E-3</v>
       </c>
-      <c r="N9" s="1">
+      <c r="P9" s="1">
         <f t="shared" si="1"/>
         <v>1.9335763396267597E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -883,36 +949,42 @@
         <v>5.766</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="2">
+        <v>20</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="2">
         <v>0.95989999999999998</v>
       </c>
-      <c r="I10" s="2">
+      <c r="K10" s="2">
         <v>0.91279999999999994</v>
       </c>
-      <c r="J10" s="2">
+      <c r="L10" s="2">
         <f t="shared" si="0"/>
         <v>1.0515994741454864</v>
       </c>
-      <c r="K10" s="2">
+      <c r="M10" s="2">
         <v>1.002</v>
       </c>
-      <c r="L10" s="2">
+      <c r="N10" s="2">
         <v>5.2919999999999998E-3</v>
       </c>
-      <c r="M10" s="2">
+      <c r="O10" s="2">
         <v>9.8750000000000001E-3</v>
       </c>
-      <c r="N10" s="1">
+      <c r="P10" s="1">
         <f t="shared" si="1"/>
         <v>1.934943032427695E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -929,36 +1001,42 @@
         <v>5.766</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="2">
+        <v>20</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="2">
         <v>0.96399999999999997</v>
       </c>
-      <c r="I11" s="2">
+      <c r="K11" s="2">
         <v>0.90920000000000001</v>
       </c>
-      <c r="J11" s="2">
+      <c r="L11" s="2">
         <f t="shared" si="0"/>
         <v>1.0602727672679277</v>
       </c>
-      <c r="K11" s="2">
+      <c r="M11" s="2">
         <v>1.002</v>
       </c>
-      <c r="L11" s="2">
+      <c r="N11" s="2">
         <v>6.3959999999999998E-3</v>
       </c>
-      <c r="M11" s="2">
+      <c r="O11" s="2">
         <v>9.9690000000000004E-3</v>
       </c>
-      <c r="N11" s="1">
+      <c r="P11" s="1">
         <f t="shared" si="1"/>
         <v>1.9509018917729871E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -975,36 +1053,42 @@
         <v>5.766</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="2">
+        <v>20</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="2">
         <v>0.96530000000000005</v>
       </c>
-      <c r="I12" s="2">
+      <c r="K12" s="2">
         <v>0.90559999999999996</v>
       </c>
-      <c r="J12" s="2">
+      <c r="L12" s="2">
         <f t="shared" si="0"/>
         <v>1.0659231448763251</v>
       </c>
-      <c r="K12" s="2">
+      <c r="M12" s="2">
         <v>1.002</v>
       </c>
-      <c r="L12" s="2">
+      <c r="N12" s="2">
         <v>5.2890000000000003E-3</v>
       </c>
-      <c r="M12" s="2">
+      <c r="O12" s="2">
         <v>1.0030000000000001E-2</v>
       </c>
-      <c r="N12" s="1">
+      <c r="P12" s="1">
         <f t="shared" si="1"/>
         <v>1.9612985865724381E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1021,36 +1105,42 @@
         <v>5.766</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" s="2">
+        <v>20</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="2">
         <v>0.96440000000000003</v>
       </c>
-      <c r="I13" s="2">
+      <c r="K13" s="2">
         <v>0.90190000000000003</v>
       </c>
-      <c r="J13" s="2">
+      <c r="L13" s="2">
         <f t="shared" si="0"/>
         <v>1.069298148353476</v>
       </c>
-      <c r="K13" s="2">
+      <c r="M13" s="2">
         <v>1.002</v>
       </c>
-      <c r="L13" s="2">
+      <c r="N13" s="2">
         <v>4.3579999999999999E-3</v>
       </c>
-      <c r="M13" s="2">
+      <c r="O13" s="2">
         <v>1.008E-2</v>
       </c>
-      <c r="N13" s="1">
+      <c r="P13" s="1">
         <f t="shared" si="1"/>
         <v>1.9675085929703958E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1067,36 +1157,42 @@
         <v>5.766</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14" s="2">
+        <v>20</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="2">
         <v>0.94899999999999995</v>
       </c>
-      <c r="I14" s="2">
+      <c r="K14" s="2">
         <v>0.8982</v>
       </c>
-      <c r="J14" s="2">
+      <c r="L14" s="2">
         <f t="shared" si="0"/>
         <v>1.0565575595635714</v>
       </c>
-      <c r="K14" s="2">
+      <c r="M14" s="2">
         <v>1.0029999999999999</v>
       </c>
-      <c r="L14" s="2">
+      <c r="N14" s="2">
         <v>6.3420000000000004E-3</v>
       </c>
-      <c r="M14" s="2">
+      <c r="O14" s="2">
         <v>9.9690000000000004E-3</v>
       </c>
-      <c r="N14" s="1">
+      <c r="P14" s="1">
         <f t="shared" si="1"/>
         <v>1.9440659095969714E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1113,36 +1209,42 @@
         <v>5.766</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H15" s="2">
+        <v>20</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" s="2">
         <v>0.96109999999999995</v>
       </c>
-      <c r="I15" s="2">
+      <c r="K15" s="2">
         <v>0.89439999999999997</v>
       </c>
-      <c r="J15" s="2">
+      <c r="L15" s="2">
         <f t="shared" si="0"/>
         <v>1.0745751341681573</v>
       </c>
-      <c r="K15" s="2">
+      <c r="M15" s="2">
         <v>1.0029999999999999</v>
       </c>
-      <c r="L15" s="2">
+      <c r="N15" s="2">
         <v>5.4169999999999999E-3</v>
       </c>
-      <c r="M15" s="2">
+      <c r="O15" s="2">
         <v>1.0149999999999999E-2</v>
       </c>
-      <c r="N15" s="1">
+      <c r="P15" s="1">
         <f t="shared" si="1"/>
         <v>1.9772182468694093E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1159,36 +1261,42 @@
         <v>5.766</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H16" s="2">
+        <v>20</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J16" s="2">
         <v>0.95620000000000005</v>
       </c>
-      <c r="I16" s="2">
+      <c r="K16" s="2">
         <v>0.89059999999999995</v>
       </c>
-      <c r="J16" s="2">
+      <c r="L16" s="2">
         <f t="shared" si="0"/>
         <v>1.073658207949697</v>
       </c>
-      <c r="K16" s="2">
+      <c r="M16" s="2">
         <v>1.0029999999999999</v>
       </c>
-      <c r="L16" s="2">
+      <c r="N16" s="2">
         <v>5.731E-3</v>
       </c>
-      <c r="M16" s="2">
+      <c r="O16" s="2">
         <v>1.0149999999999999E-2</v>
       </c>
-      <c r="N16" s="1">
+      <c r="P16" s="1">
         <f t="shared" si="1"/>
         <v>1.9755311026274425E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1205,36 +1313,42 @@
         <v>5.766</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H17" s="2">
+        <v>20</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17" s="2">
         <v>0.94789999999999996</v>
       </c>
-      <c r="I17" s="2">
+      <c r="K17" s="2">
         <v>0.88680000000000003</v>
       </c>
-      <c r="J17" s="2">
+      <c r="L17" s="2">
         <f t="shared" si="0"/>
         <v>1.0688994136220116</v>
       </c>
-      <c r="K17" s="2">
+      <c r="M17" s="2">
         <v>1.0029999999999999</v>
       </c>
-      <c r="L17" s="2">
+      <c r="N17" s="2">
         <v>7.3569999999999998E-3</v>
       </c>
-      <c r="M17" s="2">
+      <c r="O17" s="2">
         <v>1.0109999999999999E-2</v>
       </c>
-      <c r="N17" s="1">
+      <c r="P17" s="1">
         <f t="shared" si="1"/>
         <v>1.9667749210645014E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1251,36 +1365,42 @@
         <v>5.766</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H18" s="2">
+        <v>20</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J18" s="2">
         <v>0.9345</v>
       </c>
-      <c r="I18" s="2">
+      <c r="K18" s="2">
         <v>0.88280000000000003</v>
       </c>
-      <c r="J18" s="2">
+      <c r="L18" s="2">
         <f t="shared" si="0"/>
         <v>1.0585636610783868</v>
       </c>
-      <c r="K18" s="2">
+      <c r="M18" s="2">
         <v>1.004</v>
       </c>
-      <c r="L18" s="2">
+      <c r="N18" s="2">
         <v>5.2009999999999999E-3</v>
       </c>
-      <c r="M18" s="2">
+      <c r="O18" s="2">
         <v>1.0019999999999999E-2</v>
       </c>
-      <c r="N18" s="1">
+      <c r="P18" s="1">
         <f t="shared" si="1"/>
         <v>1.9477571363842316E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1297,36 +1417,42 @@
         <v>5.766</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H19" s="2">
+        <v>20</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J19" s="2">
         <v>0.93859999999999999</v>
       </c>
-      <c r="I19" s="2">
+      <c r="K19" s="2">
         <v>0.87890000000000001</v>
       </c>
-      <c r="J19" s="2">
+      <c r="L19" s="2">
         <f t="shared" si="0"/>
         <v>1.0679258163613607</v>
       </c>
-      <c r="K19" s="2">
+      <c r="M19" s="2">
         <v>1.004</v>
       </c>
-      <c r="L19" s="2">
+      <c r="N19" s="2">
         <v>5.8100000000000001E-3</v>
       </c>
-      <c r="M19" s="2">
+      <c r="O19" s="2">
         <v>1.0109999999999999E-2</v>
       </c>
-      <c r="N19" s="1">
+      <c r="P19" s="1">
         <f t="shared" si="1"/>
         <v>1.9649835021049038E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1343,36 +1469,42 @@
         <v>5.766</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H20" s="2">
+        <v>20</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J20" s="2">
         <v>0.93930000000000002</v>
       </c>
-      <c r="I20" s="2">
+      <c r="K20" s="2">
         <v>0.87549999999999994</v>
       </c>
-      <c r="J20" s="2">
+      <c r="L20" s="2">
         <f t="shared" si="0"/>
         <v>1.0728726442033125</v>
       </c>
-      <c r="K20" s="2">
+      <c r="M20" s="2">
         <v>1.004</v>
       </c>
-      <c r="L20" s="2">
+      <c r="N20" s="2">
         <v>7.1650000000000004E-3</v>
       </c>
-      <c r="M20" s="2">
+      <c r="O20" s="2">
         <v>1.017E-2</v>
       </c>
-      <c r="N20" s="1">
+      <c r="P20" s="1">
         <f t="shared" si="1"/>
         <v>1.9740856653340948E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -1389,36 +1521,42 @@
         <v>5.766</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H21" s="2">
+        <v>20</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" s="2">
         <v>0.9375</v>
       </c>
-      <c r="I21" s="2">
+      <c r="K21" s="2">
         <v>0.87319999999999998</v>
       </c>
-      <c r="J21" s="2">
+      <c r="L21" s="2">
         <f t="shared" si="0"/>
         <v>1.0736371965185525</v>
       </c>
-      <c r="K21" s="2">
+      <c r="M21" s="2">
         <v>1.0049999999999999</v>
       </c>
-      <c r="L21" s="2">
+      <c r="N21" s="2">
         <v>7.7029999999999998E-3</v>
       </c>
-      <c r="M21" s="2">
+      <c r="O21" s="2">
         <v>1.0200000000000001E-2</v>
       </c>
-      <c r="N21" s="1">
+      <c r="P21" s="1">
         <f t="shared" si="1"/>
         <v>1.9754924415941365E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1435,36 +1573,42 @@
         <v>5.766</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H22" s="2">
+        <v>20</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" s="2">
         <v>0.96</v>
       </c>
-      <c r="I22" s="2">
+      <c r="K22" s="2">
         <v>0.87209999999999999</v>
       </c>
-      <c r="J22" s="2">
+      <c r="L22" s="2">
         <f t="shared" si="0"/>
         <v>1.1007911936704506</v>
       </c>
-      <c r="K22" s="2">
+      <c r="M22" s="2">
         <v>1.0049999999999999</v>
       </c>
-      <c r="L22" s="2">
+      <c r="N22" s="2">
         <v>8.5819999999999994E-3</v>
       </c>
-      <c r="M22" s="2">
+      <c r="O22" s="2">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="N22" s="1">
+      <c r="P22" s="1">
         <f t="shared" si="1"/>
         <v>2.0254557963536292E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -1481,36 +1625,42 @@
         <v>5.766</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H23" s="2">
+        <v>20</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" s="2">
         <v>0.99039999999999995</v>
       </c>
-      <c r="I23" s="2">
+      <c r="K23" s="2">
         <v>0.87229999999999996</v>
       </c>
-      <c r="J23" s="2">
+      <c r="L23" s="2">
         <f t="shared" si="0"/>
         <v>1.1353892009629714</v>
       </c>
-      <c r="K23" s="2">
+      <c r="M23" s="2">
         <v>1.0049999999999999</v>
       </c>
-      <c r="L23" s="2">
+      <c r="N23" s="2">
         <v>9.8589999999999997E-3</v>
       </c>
-      <c r="M23" s="2">
+      <c r="O23" s="2">
         <v>1.089E-2</v>
       </c>
-      <c r="N23" s="1">
+      <c r="P23" s="1">
         <f t="shared" si="1"/>
         <v>2.0891161297718671E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -1527,36 +1677,42 @@
         <v>5.766</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H24" s="2">
+        <v>20</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J24" s="2">
         <v>1.0269999999999999</v>
       </c>
-      <c r="I24" s="2">
+      <c r="K24" s="2">
         <v>0.87360000000000004</v>
       </c>
-      <c r="J24" s="2">
+      <c r="L24" s="2">
         <f t="shared" si="0"/>
         <v>1.1755952380952379</v>
       </c>
-      <c r="K24" s="2">
+      <c r="M24" s="2">
         <v>1.0049999999999999</v>
       </c>
-      <c r="L24" s="2">
+      <c r="N24" s="2">
         <v>1.5800000000000002E-2</v>
       </c>
-      <c r="M24" s="2">
+      <c r="O24" s="2">
         <v>1.1350000000000001E-2</v>
       </c>
-      <c r="N24" s="1">
+      <c r="P24" s="1">
         <f t="shared" si="1"/>
         <v>2.1630952380952376E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -1573,36 +1729,42 @@
         <v>5.766</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H25" s="2">
+        <v>20</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" s="2">
         <v>1.0629999999999999</v>
       </c>
-      <c r="I25" s="2">
+      <c r="K25" s="2">
         <v>0.87609999999999999</v>
       </c>
-      <c r="J25" s="2">
+      <c r="L25" s="2">
         <f t="shared" si="0"/>
         <v>1.2133318114370506</v>
       </c>
-      <c r="K25" s="2">
+      <c r="M25" s="2">
         <v>1.0049999999999999</v>
       </c>
-      <c r="L25" s="2">
+      <c r="N25" s="2">
         <v>1.2449999999999999E-2</v>
       </c>
-      <c r="M25" s="2">
+      <c r="O25" s="2">
         <v>1.179E-2</v>
       </c>
-      <c r="N25" s="1">
+      <c r="P25" s="1">
         <f t="shared" si="1"/>
         <v>2.232530533044173E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -1619,36 +1781,42 @@
         <v>5.766</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H26" s="2">
+        <v>20</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J26" s="2">
         <v>1.0900000000000001</v>
       </c>
-      <c r="I26" s="2">
+      <c r="K26" s="2">
         <v>0.87980000000000003</v>
       </c>
-      <c r="J26" s="2">
+      <c r="L26" s="2">
         <f t="shared" si="0"/>
         <v>1.2389179358945215</v>
       </c>
-      <c r="K26" s="2">
+      <c r="M26" s="2">
         <v>1.006</v>
       </c>
-      <c r="L26" s="2">
+      <c r="N26" s="2">
         <v>1.158E-2</v>
       </c>
-      <c r="M26" s="2">
+      <c r="O26" s="2">
         <v>1.2160000000000001E-2</v>
       </c>
-      <c r="N26" s="1">
+      <c r="P26" s="1">
         <f t="shared" si="1"/>
         <v>2.2796090020459195E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -1665,36 +1833,42 @@
         <v>5.766</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H27" s="2">
+        <v>20</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J27" s="2">
         <v>1.151</v>
       </c>
-      <c r="I27" s="2">
+      <c r="K27" s="2">
         <v>0.88460000000000005</v>
       </c>
-      <c r="J27" s="2">
+      <c r="L27" s="2">
         <f t="shared" si="0"/>
         <v>1.3011530635315396</v>
       </c>
-      <c r="K27" s="2">
+      <c r="M27" s="2">
         <v>1.004</v>
       </c>
-      <c r="L27" s="2">
+      <c r="N27" s="2">
         <v>2.3949999999999999E-2</v>
       </c>
-      <c r="M27" s="2">
+      <c r="O27" s="2">
         <v>1.29E-2</v>
       </c>
-      <c r="N27" s="1">
+      <c r="P27" s="1">
         <f t="shared" si="1"/>
         <v>2.3941216368980327E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1708,8 +1882,10 @@
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1723,6 +1899,8 @@
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/idis/expdata/10041.xlsx
+++ b/idis/expdata/10041.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/Marathon Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175CDE69-4E4C-2043-98D3-A032149F486A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B706425D-B800-F640-A555-09C7D1A3B56E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35840" yWindow="2100" windowWidth="28800" windowHeight="15960" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Seely_Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="16">
   <si>
     <t>Q2</t>
   </si>
@@ -66,9 +66,6 @@
     <t>obs</t>
   </si>
   <si>
-    <t>sigh/sigd</t>
-  </si>
-  <si>
     <t>h/d</t>
   </si>
   <si>
@@ -81,25 +78,13 @@
     <t>syst_u</t>
   </si>
   <si>
-    <t>E</t>
-  </si>
-  <si>
     <t>*norm_c</t>
   </si>
   <si>
     <t>target</t>
   </si>
   <si>
-    <t>lepton beam</t>
-  </si>
-  <si>
-    <t>e_minus</t>
-  </si>
-  <si>
-    <t>current</t>
-  </si>
-  <si>
-    <t>NC</t>
+    <t>F2h/F2d</t>
   </si>
 </sst>
 </file>
@@ -444,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P29"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -455,18 +440,18 @@
     <col min="1" max="1" width="20.1640625" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="7" width="13.83203125" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="15.1640625" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" customWidth="1"/>
-    <col min="12" max="12" width="14.83203125" customWidth="1"/>
-    <col min="13" max="13" width="14.1640625" customWidth="1"/>
-    <col min="14" max="14" width="16" customWidth="1"/>
-    <col min="15" max="15" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+    <col min="12" max="12" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -483,40 +468,31 @@
         <v>14</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -529,46 +505,37 @@
       <c r="D2" s="2">
         <v>6.8373999999999997</v>
       </c>
-      <c r="E2" s="2">
-        <v>5.766</v>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.97740000000000005</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.94</v>
+      </c>
+      <c r="I2" s="2">
+        <f>G2/H2</f>
+        <v>1.0397872340425534</v>
       </c>
       <c r="J2" s="2">
-        <v>0.97740000000000005</v>
+        <v>1.0009999999999999</v>
       </c>
       <c r="K2" s="2">
-        <v>0.94</v>
+        <v>6.1980000000000004E-3</v>
       </c>
       <c r="L2" s="2">
-        <f>J2/K2</f>
-        <v>1.0397872340425534</v>
-      </c>
-      <c r="M2" s="2">
-        <v>1.0009999999999999</v>
-      </c>
-      <c r="N2" s="2">
-        <v>6.1980000000000004E-3</v>
-      </c>
-      <c r="O2" s="2">
         <v>9.6310000000000007E-3</v>
       </c>
-      <c r="P2" s="1">
-        <f>L2*0.0184</f>
+      <c r="M2" s="1">
+        <f>I2*0.0184</f>
         <v>1.9132085106382982E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -581,46 +548,37 @@
       <c r="D3" s="2">
         <v>6.5365000000000002</v>
       </c>
-      <c r="E3" s="2">
-        <v>5.766</v>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.97629999999999995</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.93669999999999998</v>
+      </c>
+      <c r="I3" s="2">
+        <f t="shared" ref="I3:I27" si="0">G3/H3</f>
+        <v>1.0422760755844986</v>
       </c>
       <c r="J3" s="2">
-        <v>0.97629999999999995</v>
+        <v>1.0009999999999999</v>
       </c>
       <c r="K3" s="2">
-        <v>0.93669999999999998</v>
+        <v>5.8719999999999996E-3</v>
       </c>
       <c r="L3" s="2">
-        <f t="shared" ref="L3:L27" si="0">J3/K3</f>
-        <v>1.0422760755844986</v>
-      </c>
-      <c r="M3" s="2">
-        <v>1.0009999999999999</v>
-      </c>
-      <c r="N3" s="2">
-        <v>5.8719999999999996E-3</v>
-      </c>
-      <c r="O3" s="2">
         <v>9.6729999999999993E-3</v>
       </c>
-      <c r="P3" s="1">
-        <f t="shared" ref="P3:P27" si="1">L3*0.0184</f>
+      <c r="M3" s="1">
+        <f t="shared" ref="M3:M27" si="1">I3*0.0184</f>
         <v>1.9177879790754776E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -633,46 +591,37 @@
       <c r="D4" s="2">
         <v>6.2439999999999998</v>
       </c>
-      <c r="E4" s="2">
-        <v>5.766</v>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.97960000000000003</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.93340000000000001</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0494964645382472</v>
       </c>
       <c r="J4" s="2">
-        <v>0.97960000000000003</v>
+        <v>1.0009999999999999</v>
       </c>
       <c r="K4" s="2">
-        <v>0.93340000000000001</v>
+        <v>5.7400000000000003E-3</v>
       </c>
       <c r="L4" s="2">
-        <f t="shared" si="0"/>
-        <v>1.0494964645382472</v>
-      </c>
-      <c r="M4" s="2">
-        <v>1.0009999999999999</v>
-      </c>
-      <c r="N4" s="2">
-        <v>5.7400000000000003E-3</v>
-      </c>
-      <c r="O4" s="2">
         <v>9.7590000000000003E-3</v>
       </c>
-      <c r="P4" s="1">
+      <c r="M4" s="1">
         <f t="shared" si="1"/>
         <v>1.9310734947503749E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -685,46 +634,37 @@
       <c r="D5" s="2">
         <v>5.9593999999999996</v>
       </c>
-      <c r="E5" s="2">
-        <v>5.766</v>
+      <c r="E5" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.96840000000000004</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.93010000000000004</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0411783679174282</v>
       </c>
       <c r="J5" s="2">
-        <v>0.96840000000000004</v>
+        <v>1.0009999999999999</v>
       </c>
       <c r="K5" s="2">
-        <v>0.93010000000000004</v>
+        <v>4.5729999999999998E-3</v>
       </c>
       <c r="L5" s="2">
-        <f t="shared" si="0"/>
-        <v>1.0411783679174282</v>
-      </c>
-      <c r="M5" s="2">
-        <v>1.0009999999999999</v>
-      </c>
-      <c r="N5" s="2">
-        <v>4.5729999999999998E-3</v>
-      </c>
-      <c r="O5" s="2">
         <v>9.7000000000000003E-3</v>
       </c>
-      <c r="P5" s="1">
+      <c r="M5" s="1">
         <f t="shared" si="1"/>
         <v>1.9157681969680679E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -737,46 +677,37 @@
       <c r="D6" s="2">
         <v>5.6824000000000003</v>
       </c>
-      <c r="E6" s="2">
-        <v>5.766</v>
+      <c r="E6" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.97250000000000003</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.92669999999999997</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0494226826373152</v>
       </c>
       <c r="J6" s="2">
-        <v>0.97250000000000003</v>
+        <v>1.002</v>
       </c>
       <c r="K6" s="2">
-        <v>0.92669999999999997</v>
+        <v>5.8640000000000003E-3</v>
       </c>
       <c r="L6" s="2">
-        <f t="shared" si="0"/>
-        <v>1.0494226826373152</v>
-      </c>
-      <c r="M6" s="2">
-        <v>1.002</v>
-      </c>
-      <c r="N6" s="2">
-        <v>5.8640000000000003E-3</v>
-      </c>
-      <c r="O6" s="2">
         <v>9.7929999999999996E-3</v>
       </c>
-      <c r="P6" s="1">
+      <c r="M6" s="1">
         <f t="shared" si="1"/>
         <v>1.9309377360526601E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -789,46 +720,37 @@
       <c r="D7" s="2">
         <v>5.4127999999999998</v>
       </c>
-      <c r="E7" s="2">
-        <v>5.766</v>
+      <c r="E7" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.97130000000000005</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.92330000000000001</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0519874363695441</v>
       </c>
       <c r="J7" s="2">
-        <v>0.97130000000000005</v>
+        <v>1.002</v>
       </c>
       <c r="K7" s="2">
-        <v>0.92330000000000001</v>
+        <v>5.4669999999999996E-3</v>
       </c>
       <c r="L7" s="2">
-        <f t="shared" si="0"/>
-        <v>1.0519874363695441</v>
-      </c>
-      <c r="M7" s="2">
-        <v>1.002</v>
-      </c>
-      <c r="N7" s="2">
-        <v>5.4669999999999996E-3</v>
-      </c>
-      <c r="O7" s="2">
         <v>9.835E-3</v>
       </c>
-      <c r="P7" s="1">
+      <c r="M7" s="1">
         <f t="shared" si="1"/>
         <v>1.9356568829199609E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -841,46 +763,37 @@
       <c r="D8" s="2">
         <v>5.1501999999999999</v>
       </c>
-      <c r="E8" s="2">
-        <v>5.766</v>
+      <c r="E8" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.96960000000000002</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.91979999999999995</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0541422048271365</v>
       </c>
       <c r="J8" s="2">
-        <v>0.96960000000000002</v>
+        <v>1.002</v>
       </c>
       <c r="K8" s="2">
-        <v>0.91979999999999995</v>
+        <v>4.5139999999999998E-3</v>
       </c>
       <c r="L8" s="2">
-        <f t="shared" si="0"/>
-        <v>1.0541422048271365</v>
-      </c>
-      <c r="M8" s="2">
-        <v>1.002</v>
-      </c>
-      <c r="N8" s="2">
-        <v>4.5139999999999998E-3</v>
-      </c>
-      <c r="O8" s="2">
         <v>9.8700000000000003E-3</v>
       </c>
-      <c r="P8" s="1">
+      <c r="M8" s="1">
         <f t="shared" si="1"/>
         <v>1.9396216568819312E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -893,46 +806,37 @@
       <c r="D9" s="2">
         <v>4.8944999999999999</v>
       </c>
-      <c r="E9" s="2">
-        <v>5.766</v>
+      <c r="E9" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.96289999999999998</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.9163</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0508567063188912</v>
       </c>
       <c r="J9" s="2">
-        <v>0.96289999999999998</v>
+        <v>1.002</v>
       </c>
       <c r="K9" s="2">
-        <v>0.9163</v>
+        <v>5.9160000000000003E-3</v>
       </c>
       <c r="L9" s="2">
-        <f t="shared" si="0"/>
-        <v>1.0508567063188912</v>
-      </c>
-      <c r="M9" s="2">
-        <v>1.002</v>
-      </c>
-      <c r="N9" s="2">
-        <v>5.9160000000000003E-3</v>
-      </c>
-      <c r="O9" s="2">
         <v>9.8539999999999999E-3</v>
       </c>
-      <c r="P9" s="1">
+      <c r="M9" s="1">
         <f t="shared" si="1"/>
         <v>1.9335763396267597E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -945,46 +849,37 @@
       <c r="D10" s="2">
         <v>4.6452</v>
       </c>
-      <c r="E10" s="2">
-        <v>5.766</v>
+      <c r="E10" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.95989999999999998</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.91279999999999994</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0515994741454864</v>
       </c>
       <c r="J10" s="2">
-        <v>0.95989999999999998</v>
+        <v>1.002</v>
       </c>
       <c r="K10" s="2">
-        <v>0.91279999999999994</v>
+        <v>5.2919999999999998E-3</v>
       </c>
       <c r="L10" s="2">
-        <f t="shared" si="0"/>
-        <v>1.0515994741454864</v>
-      </c>
-      <c r="M10" s="2">
-        <v>1.002</v>
-      </c>
-      <c r="N10" s="2">
-        <v>5.2919999999999998E-3</v>
-      </c>
-      <c r="O10" s="2">
         <v>9.8750000000000001E-3</v>
       </c>
-      <c r="P10" s="1">
+      <c r="M10" s="1">
         <f t="shared" si="1"/>
         <v>1.934943032427695E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -997,46 +892,37 @@
       <c r="D11" s="2">
         <v>4.4021999999999997</v>
       </c>
-      <c r="E11" s="2">
-        <v>5.766</v>
+      <c r="E11" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.90920000000000001</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0602727672679277</v>
       </c>
       <c r="J11" s="2">
-        <v>0.96399999999999997</v>
+        <v>1.002</v>
       </c>
       <c r="K11" s="2">
-        <v>0.90920000000000001</v>
+        <v>6.3959999999999998E-3</v>
       </c>
       <c r="L11" s="2">
-        <f t="shared" si="0"/>
-        <v>1.0602727672679277</v>
-      </c>
-      <c r="M11" s="2">
-        <v>1.002</v>
-      </c>
-      <c r="N11" s="2">
-        <v>6.3959999999999998E-3</v>
-      </c>
-      <c r="O11" s="2">
         <v>9.9690000000000004E-3</v>
       </c>
-      <c r="P11" s="1">
+      <c r="M11" s="1">
         <f t="shared" si="1"/>
         <v>1.9509018917729871E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1049,46 +935,37 @@
       <c r="D12" s="2">
         <v>4.1651999999999996</v>
       </c>
-      <c r="E12" s="2">
-        <v>5.766</v>
+      <c r="E12" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.96530000000000005</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.90559999999999996</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0659231448763251</v>
       </c>
       <c r="J12" s="2">
-        <v>0.96530000000000005</v>
+        <v>1.002</v>
       </c>
       <c r="K12" s="2">
-        <v>0.90559999999999996</v>
+        <v>5.2890000000000003E-3</v>
       </c>
       <c r="L12" s="2">
-        <f t="shared" si="0"/>
-        <v>1.0659231448763251</v>
-      </c>
-      <c r="M12" s="2">
-        <v>1.002</v>
-      </c>
-      <c r="N12" s="2">
-        <v>5.2890000000000003E-3</v>
-      </c>
-      <c r="O12" s="2">
         <v>1.0030000000000001E-2</v>
       </c>
-      <c r="P12" s="1">
+      <c r="M12" s="1">
         <f t="shared" si="1"/>
         <v>1.9612985865724381E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1101,46 +978,37 @@
       <c r="D13" s="2">
         <v>3.9340000000000002</v>
       </c>
-      <c r="E13" s="2">
-        <v>5.766</v>
+      <c r="E13" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.96440000000000003</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.90190000000000003</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="0"/>
+        <v>1.069298148353476</v>
       </c>
       <c r="J13" s="2">
-        <v>0.96440000000000003</v>
+        <v>1.002</v>
       </c>
       <c r="K13" s="2">
-        <v>0.90190000000000003</v>
+        <v>4.3579999999999999E-3</v>
       </c>
       <c r="L13" s="2">
-        <f t="shared" si="0"/>
-        <v>1.069298148353476</v>
-      </c>
-      <c r="M13" s="2">
-        <v>1.002</v>
-      </c>
-      <c r="N13" s="2">
-        <v>4.3579999999999999E-3</v>
-      </c>
-      <c r="O13" s="2">
         <v>1.008E-2</v>
       </c>
-      <c r="P13" s="1">
+      <c r="M13" s="1">
         <f t="shared" si="1"/>
         <v>1.9675085929703958E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1153,46 +1021,37 @@
       <c r="D14" s="2">
         <v>3.7084999999999999</v>
       </c>
-      <c r="E14" s="2">
-        <v>5.766</v>
+      <c r="E14" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.8982</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0565575595635714</v>
       </c>
       <c r="J14" s="2">
-        <v>0.94899999999999995</v>
+        <v>1.0029999999999999</v>
       </c>
       <c r="K14" s="2">
-        <v>0.8982</v>
+        <v>6.3420000000000004E-3</v>
       </c>
       <c r="L14" s="2">
-        <f t="shared" si="0"/>
-        <v>1.0565575595635714</v>
-      </c>
-      <c r="M14" s="2">
-        <v>1.0029999999999999</v>
-      </c>
-      <c r="N14" s="2">
-        <v>6.3420000000000004E-3</v>
-      </c>
-      <c r="O14" s="2">
         <v>9.9690000000000004E-3</v>
       </c>
-      <c r="P14" s="1">
+      <c r="M14" s="1">
         <f t="shared" si="1"/>
         <v>1.9440659095969714E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1205,46 +1064,37 @@
       <c r="D15" s="2">
         <v>3.4883000000000002</v>
       </c>
-      <c r="E15" s="2">
-        <v>5.766</v>
+      <c r="E15" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.96109999999999995</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.89439999999999997</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0745751341681573</v>
       </c>
       <c r="J15" s="2">
-        <v>0.96109999999999995</v>
+        <v>1.0029999999999999</v>
       </c>
       <c r="K15" s="2">
-        <v>0.89439999999999997</v>
+        <v>5.4169999999999999E-3</v>
       </c>
       <c r="L15" s="2">
-        <f t="shared" si="0"/>
-        <v>1.0745751341681573</v>
-      </c>
-      <c r="M15" s="2">
-        <v>1.0029999999999999</v>
-      </c>
-      <c r="N15" s="2">
-        <v>5.4169999999999999E-3</v>
-      </c>
-      <c r="O15" s="2">
         <v>1.0149999999999999E-2</v>
       </c>
-      <c r="P15" s="1">
+      <c r="M15" s="1">
         <f t="shared" si="1"/>
         <v>1.9772182468694093E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1257,46 +1107,37 @@
       <c r="D16" s="2">
         <v>3.2734000000000001</v>
       </c>
-      <c r="E16" s="2">
-        <v>5.766</v>
+      <c r="E16" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.95620000000000005</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.89059999999999995</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" si="0"/>
+        <v>1.073658207949697</v>
       </c>
       <c r="J16" s="2">
-        <v>0.95620000000000005</v>
+        <v>1.0029999999999999</v>
       </c>
       <c r="K16" s="2">
-        <v>0.89059999999999995</v>
+        <v>5.731E-3</v>
       </c>
       <c r="L16" s="2">
-        <f t="shared" si="0"/>
-        <v>1.073658207949697</v>
-      </c>
-      <c r="M16" s="2">
-        <v>1.0029999999999999</v>
-      </c>
-      <c r="N16" s="2">
-        <v>5.731E-3</v>
-      </c>
-      <c r="O16" s="2">
         <v>1.0149999999999999E-2</v>
       </c>
-      <c r="P16" s="1">
+      <c r="M16" s="1">
         <f t="shared" si="1"/>
         <v>1.9755311026274425E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1309,46 +1150,37 @@
       <c r="D17" s="2">
         <v>3.0634999999999999</v>
       </c>
-      <c r="E17" s="2">
-        <v>5.766</v>
+      <c r="E17" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.94789999999999996</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.88680000000000003</v>
+      </c>
+      <c r="I17" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0688994136220116</v>
       </c>
       <c r="J17" s="2">
-        <v>0.94789999999999996</v>
+        <v>1.0029999999999999</v>
       </c>
       <c r="K17" s="2">
-        <v>0.88680000000000003</v>
+        <v>7.3569999999999998E-3</v>
       </c>
       <c r="L17" s="2">
-        <f t="shared" si="0"/>
-        <v>1.0688994136220116</v>
-      </c>
-      <c r="M17" s="2">
-        <v>1.0029999999999999</v>
-      </c>
-      <c r="N17" s="2">
-        <v>7.3569999999999998E-3</v>
-      </c>
-      <c r="O17" s="2">
         <v>1.0109999999999999E-2</v>
       </c>
-      <c r="P17" s="1">
+      <c r="M17" s="1">
         <f t="shared" si="1"/>
         <v>1.9667749210645014E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1361,46 +1193,37 @@
       <c r="D18" s="2">
         <v>2.8584000000000001</v>
       </c>
-      <c r="E18" s="2">
-        <v>5.766</v>
+      <c r="E18" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.9345</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0.88280000000000003</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0585636610783868</v>
       </c>
       <c r="J18" s="2">
-        <v>0.9345</v>
+        <v>1.004</v>
       </c>
       <c r="K18" s="2">
-        <v>0.88280000000000003</v>
+        <v>5.2009999999999999E-3</v>
       </c>
       <c r="L18" s="2">
-        <f t="shared" si="0"/>
-        <v>1.0585636610783868</v>
-      </c>
-      <c r="M18" s="2">
-        <v>1.004</v>
-      </c>
-      <c r="N18" s="2">
-        <v>5.2009999999999999E-3</v>
-      </c>
-      <c r="O18" s="2">
         <v>1.0019999999999999E-2</v>
       </c>
-      <c r="P18" s="1">
+      <c r="M18" s="1">
         <f t="shared" si="1"/>
         <v>1.9477571363842316E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1413,46 +1236,37 @@
       <c r="D19" s="2">
         <v>2.6581000000000001</v>
       </c>
-      <c r="E19" s="2">
-        <v>5.766</v>
+      <c r="E19" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0.93859999999999999</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.87890000000000001</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0679258163613607</v>
       </c>
       <c r="J19" s="2">
-        <v>0.93859999999999999</v>
+        <v>1.004</v>
       </c>
       <c r="K19" s="2">
-        <v>0.87890000000000001</v>
+        <v>5.8100000000000001E-3</v>
       </c>
       <c r="L19" s="2">
-        <f t="shared" si="0"/>
-        <v>1.0679258163613607</v>
-      </c>
-      <c r="M19" s="2">
-        <v>1.004</v>
-      </c>
-      <c r="N19" s="2">
-        <v>5.8100000000000001E-3</v>
-      </c>
-      <c r="O19" s="2">
         <v>1.0109999999999999E-2</v>
       </c>
-      <c r="P19" s="1">
+      <c r="M19" s="1">
         <f t="shared" si="1"/>
         <v>1.9649835021049038E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1465,46 +1279,37 @@
       <c r="D20" s="2">
         <v>2.4622000000000002</v>
       </c>
-      <c r="E20" s="2">
-        <v>5.766</v>
+      <c r="E20" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.93930000000000002</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0.87549999999999994</v>
+      </c>
+      <c r="I20" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0728726442033125</v>
       </c>
       <c r="J20" s="2">
-        <v>0.93930000000000002</v>
+        <v>1.004</v>
       </c>
       <c r="K20" s="2">
-        <v>0.87549999999999994</v>
+        <v>7.1650000000000004E-3</v>
       </c>
       <c r="L20" s="2">
-        <f t="shared" si="0"/>
-        <v>1.0728726442033125</v>
-      </c>
-      <c r="M20" s="2">
-        <v>1.004</v>
-      </c>
-      <c r="N20" s="2">
-        <v>7.1650000000000004E-3</v>
-      </c>
-      <c r="O20" s="2">
         <v>1.017E-2</v>
       </c>
-      <c r="P20" s="1">
+      <c r="M20" s="1">
         <f t="shared" si="1"/>
         <v>1.9740856653340948E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -1517,46 +1322,37 @@
       <c r="D21" s="2">
         <v>2.2707000000000002</v>
       </c>
-      <c r="E21" s="2">
-        <v>5.766</v>
+      <c r="E21" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0.87319999999999998</v>
+      </c>
+      <c r="I21" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0736371965185525</v>
       </c>
       <c r="J21" s="2">
-        <v>0.9375</v>
+        <v>1.0049999999999999</v>
       </c>
       <c r="K21" s="2">
-        <v>0.87319999999999998</v>
+        <v>7.7029999999999998E-3</v>
       </c>
       <c r="L21" s="2">
-        <f t="shared" si="0"/>
-        <v>1.0736371965185525</v>
-      </c>
-      <c r="M21" s="2">
-        <v>1.0049999999999999</v>
-      </c>
-      <c r="N21" s="2">
-        <v>7.7029999999999998E-3</v>
-      </c>
-      <c r="O21" s="2">
         <v>1.0200000000000001E-2</v>
       </c>
-      <c r="P21" s="1">
+      <c r="M21" s="1">
         <f t="shared" si="1"/>
         <v>1.9754924415941365E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1569,46 +1365,37 @@
       <c r="D22" s="2">
         <v>2.0834999999999999</v>
       </c>
-      <c r="E22" s="2">
-        <v>5.766</v>
+      <c r="E22" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0.87209999999999999</v>
+      </c>
+      <c r="I22" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1007911936704506</v>
       </c>
       <c r="J22" s="2">
-        <v>0.96</v>
+        <v>1.0049999999999999</v>
       </c>
       <c r="K22" s="2">
-        <v>0.87209999999999999</v>
+        <v>8.5819999999999994E-3</v>
       </c>
       <c r="L22" s="2">
-        <f t="shared" si="0"/>
-        <v>1.1007911936704506</v>
-      </c>
-      <c r="M22" s="2">
-        <v>1.0049999999999999</v>
-      </c>
-      <c r="N22" s="2">
-        <v>8.5819999999999994E-3</v>
-      </c>
-      <c r="O22" s="2">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="P22" s="1">
+      <c r="M22" s="1">
         <f t="shared" si="1"/>
         <v>2.0254557963536292E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -1621,46 +1408,37 @@
       <c r="D23" s="2">
         <v>1.9003000000000001</v>
       </c>
-      <c r="E23" s="2">
-        <v>5.766</v>
+      <c r="E23" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0.99039999999999995</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0.87229999999999996</v>
+      </c>
+      <c r="I23" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1353892009629714</v>
       </c>
       <c r="J23" s="2">
-        <v>0.99039999999999995</v>
+        <v>1.0049999999999999</v>
       </c>
       <c r="K23" s="2">
-        <v>0.87229999999999996</v>
+        <v>9.8589999999999997E-3</v>
       </c>
       <c r="L23" s="2">
-        <f t="shared" si="0"/>
-        <v>1.1353892009629714</v>
-      </c>
-      <c r="M23" s="2">
-        <v>1.0049999999999999</v>
-      </c>
-      <c r="N23" s="2">
-        <v>9.8589999999999997E-3</v>
-      </c>
-      <c r="O23" s="2">
         <v>1.089E-2</v>
       </c>
-      <c r="P23" s="1">
+      <c r="M23" s="1">
         <f t="shared" si="1"/>
         <v>2.0891161297718671E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -1673,46 +1451,37 @@
       <c r="D24" s="2">
         <v>1.7212000000000001</v>
       </c>
-      <c r="E24" s="2">
-        <v>5.766</v>
+      <c r="E24" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1.0269999999999999</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0.87360000000000004</v>
+      </c>
+      <c r="I24" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1755952380952379</v>
       </c>
       <c r="J24" s="2">
-        <v>1.0269999999999999</v>
+        <v>1.0049999999999999</v>
       </c>
       <c r="K24" s="2">
-        <v>0.87360000000000004</v>
+        <v>1.5800000000000002E-2</v>
       </c>
       <c r="L24" s="2">
-        <f t="shared" si="0"/>
-        <v>1.1755952380952379</v>
-      </c>
-      <c r="M24" s="2">
-        <v>1.0049999999999999</v>
-      </c>
-      <c r="N24" s="2">
-        <v>1.5800000000000002E-2</v>
-      </c>
-      <c r="O24" s="2">
         <v>1.1350000000000001E-2</v>
       </c>
-      <c r="P24" s="1">
+      <c r="M24" s="1">
         <f t="shared" si="1"/>
         <v>2.1630952380952376E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -1725,46 +1494,37 @@
       <c r="D25" s="2">
         <v>1.5458000000000001</v>
       </c>
-      <c r="E25" s="2">
-        <v>5.766</v>
+      <c r="E25" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="G25" s="2">
+        <v>1.0629999999999999</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0.87609999999999999</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="0"/>
+        <v>1.2133318114370506</v>
       </c>
       <c r="J25" s="2">
-        <v>1.0629999999999999</v>
+        <v>1.0049999999999999</v>
       </c>
       <c r="K25" s="2">
-        <v>0.87609999999999999</v>
+        <v>1.2449999999999999E-2</v>
       </c>
       <c r="L25" s="2">
-        <f t="shared" si="0"/>
-        <v>1.2133318114370506</v>
-      </c>
-      <c r="M25" s="2">
-        <v>1.0049999999999999</v>
-      </c>
-      <c r="N25" s="2">
-        <v>1.2449999999999999E-2</v>
-      </c>
-      <c r="O25" s="2">
         <v>1.179E-2</v>
       </c>
-      <c r="P25" s="1">
+      <c r="M25" s="1">
         <f t="shared" si="1"/>
         <v>2.232530533044173E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -1777,46 +1537,37 @@
       <c r="D26" s="2">
         <v>1.3742000000000001</v>
       </c>
-      <c r="E26" s="2">
-        <v>5.766</v>
+      <c r="E26" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0.87980000000000003</v>
+      </c>
+      <c r="I26" s="2">
+        <f t="shared" si="0"/>
+        <v>1.2389179358945215</v>
       </c>
       <c r="J26" s="2">
-        <v>1.0900000000000001</v>
+        <v>1.006</v>
       </c>
       <c r="K26" s="2">
-        <v>0.87980000000000003</v>
+        <v>1.158E-2</v>
       </c>
       <c r="L26" s="2">
-        <f t="shared" si="0"/>
-        <v>1.2389179358945215</v>
-      </c>
-      <c r="M26" s="2">
-        <v>1.006</v>
-      </c>
-      <c r="N26" s="2">
-        <v>1.158E-2</v>
-      </c>
-      <c r="O26" s="2">
         <v>1.2160000000000001E-2</v>
       </c>
-      <c r="P26" s="1">
+      <c r="M26" s="1">
         <f t="shared" si="1"/>
         <v>2.2796090020459195E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -1829,46 +1580,37 @@
       <c r="D27" s="2">
         <v>1.2060999999999999</v>
       </c>
-      <c r="E27" s="2">
-        <v>5.766</v>
+      <c r="E27" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="G27" s="2">
+        <v>1.151</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0.88460000000000005</v>
+      </c>
+      <c r="I27" s="2">
+        <f t="shared" si="0"/>
+        <v>1.3011530635315396</v>
       </c>
       <c r="J27" s="2">
-        <v>1.151</v>
+        <v>1.004</v>
       </c>
       <c r="K27" s="2">
-        <v>0.88460000000000005</v>
+        <v>2.3949999999999999E-2</v>
       </c>
       <c r="L27" s="2">
-        <f t="shared" si="0"/>
-        <v>1.3011530635315396</v>
-      </c>
-      <c r="M27" s="2">
-        <v>1.004</v>
-      </c>
-      <c r="N27" s="2">
-        <v>2.3949999999999999E-2</v>
-      </c>
-      <c r="O27" s="2">
         <v>1.29E-2</v>
       </c>
-      <c r="P27" s="1">
+      <c r="M27" s="1">
         <f t="shared" si="1"/>
         <v>2.3941216368980327E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1881,11 +1623,8 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1898,9 +1637,6 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
